--- a/election2021/SECTOR OFFICERS.xlsx
+++ b/election2021/SECTOR OFFICERS.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\election2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aems\election2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E49B9A-9752-4C5B-BA34-8B40FE5A26DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6624B45C-931A-480B-B531-5EFD71BA361E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{263A5FC2-522A-4FDC-9CD9-DB0E4712EE76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{263A5FC2-522A-4FDC-9CD9-DB0E4712EE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -789,18 +790,18 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,7 +835,7 @@
         <v>8723828022</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -851,7 +852,7 @@
         <v>8723023133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -868,7 +869,7 @@
         <v>8822384170</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>9531180689</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -902,7 +903,7 @@
         <v>8472858313</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -919,7 +920,7 @@
         <v>7002497560</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -936,7 +937,7 @@
         <v>8133035420</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -953,7 +954,7 @@
         <v>7002144832</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -970,7 +971,7 @@
         <v>8638956146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -987,7 +988,7 @@
         <v>9435151131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>7002582865</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>8638432011</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>7086457228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>7002682709</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>9957588045</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>9101046566</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>7086364141</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>9101502383</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>7002288270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>9435362099</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>9101008662</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>8486334458</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>9101987690</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>82568164</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>9435520215</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>9435056637</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>7002104201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>7086012772</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>9706203406</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>9435354855</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>8638104229</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>9957701438</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>7002286305</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>9085531449</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>9957526605</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>9401007774</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>8876856981</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>8486589952</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1487,16 +1488,354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA34315-C5FA-4D69-8982-22CAEA1F7D5A}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7BC4E8-65C5-44AD-8529-B0B4B0DC5051}">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -1516,7 +1855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1536,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1556,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1576,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1596,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1616,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1636,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1656,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1676,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1696,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1716,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1736,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1756,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1776,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1796,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1816,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1836,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1856,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1876,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1896,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1916,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1936,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1956,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1976,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1996,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2016,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2036,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2056,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2076,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2096,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2116,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2136,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2156,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2176,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2196,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2216,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2236,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2256,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2276,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2296,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2316,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2336,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2356,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2376,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2396,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2416,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2436,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2456,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2476,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2496,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2516,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2536,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2556,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2576,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2596,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2616,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2636,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2656,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2676,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2696,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -2716,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -2736,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -2756,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -2776,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -2796,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -2816,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -2836,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -2856,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -2876,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -2896,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -2916,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -2936,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -2956,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -2976,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -2996,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3016,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3036,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -3056,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -3076,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3096,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -3116,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -3136,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -3156,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -3176,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3196,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3216,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -3236,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -3256,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -3276,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -3296,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -3316,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -3336,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -3356,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -3376,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -3396,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -3416,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -3436,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -3456,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -3476,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -3496,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -3516,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -3536,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -3556,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -3576,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -3596,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -3616,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -3636,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -3656,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -3676,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -3696,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -3716,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -3736,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -3756,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -3776,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -3796,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -3816,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -3836,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -3856,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -3876,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -3896,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -3916,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -3936,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -3956,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -3976,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -3996,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -4016,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -4036,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -4056,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -4076,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -4096,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -4116,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -4136,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -4156,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -4176,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -4196,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -4216,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -4236,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -4256,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -4276,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -4296,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -4316,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -4336,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -4356,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -4376,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -4396,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -4416,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -4436,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -4456,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -4476,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -4496,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -4516,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -4536,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -4556,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -4576,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -4596,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -4616,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -4636,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -4656,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>158</v>
       </c>
@@ -4676,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -4696,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -4716,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -4736,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -4756,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -4776,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -4796,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -4816,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -4836,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -4856,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -4876,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -4896,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -4916,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -4936,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -4956,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -4976,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -4996,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -5016,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -5036,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C178" s="5">
         <v>16</v>
       </c>
@@ -5044,52 +5383,52 @@
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E179" s="5">
         <v>238</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E180" s="11">
         <v>139</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E181" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E182" s="5">
         <v>141</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E183" s="5">
         <v>142</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E184" s="5">
         <v>143</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E185" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E186" s="5">
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E187" s="5">
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E188" s="5">
         <v>247</v>
       </c>
